--- a/matriz.xlsx
+++ b/matriz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alenc\OneDrive\Documentos\ProjetoHorario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9542878-9206-4C97-A285-85851273ABCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91042EB0-BC10-4D3D-BFDA-EC5D85A10C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,28 @@
     <sheet name="Turmas" sheetId="1" r:id="rId1"/>
     <sheet name="Grade_Curricular" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>Aulas_Semanais</t>
   </si>
@@ -200,6 +211,12 @@
   </si>
   <si>
     <t>1º Ano - Ensino Médio, 2º Ano - Ensino Médio, 3º Ano - Ensino Médio</t>
+  </si>
+  <si>
+    <t>Seg, Qua, Qui, Sex</t>
+  </si>
+  <si>
+    <t>Seg, Ter, Qui, Sex</t>
   </si>
 </sst>
 </file>
@@ -653,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A847007A-01D9-4796-A219-82DC15BFC4FE}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,7 +852,9 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="40.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -899,7 +918,9 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="40.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -993,7 +1014,9 @@
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="40.799999999999997" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
